--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3559.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3559.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.297394561575006</v>
+        <v>0.8705909252166748</v>
       </c>
       <c r="B1">
-        <v>1.559342451190788</v>
+        <v>2.562511920928955</v>
       </c>
       <c r="C1">
-        <v>2.096699116373602</v>
+        <v>1.313771605491638</v>
       </c>
       <c r="D1">
-        <v>5.015254721646765</v>
+        <v>1.315277457237244</v>
       </c>
       <c r="E1">
-        <v>3.21685659012434</v>
+        <v>1.422910809516907</v>
       </c>
     </row>
   </sheetData>
